--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560365/JX560365_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560365/JX560365_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89334053158</v>
+        <v>45441.83358937678</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1824c&gt;a']</t>
+          <t>['1958_2045del', '1750_1795insacttacgctccacacttcgagcaaaaggaaggaccgatatgccct', '1970_2065insccgcctggtcatggtatgtgtggcctgtatccgaagttgtcttttcggatttagatgctgaggtggaccgtactggctgcgatgagtctgtgcca', '1756_1795del', '1818_1880inscattggagtttcgcgatggtgatccctaaagcgcaggtggggaggcggaccgttaagggtat']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89334055474</v>
+        <v>45441.83358941149</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['643_644del']</t>
+          <t>['675_716del', '602_631insgcccataggcgtatttgacccctcagccg', '691_766del', '701_804insaacgctcattaggggacagttaggtacaaagtttggtcaacaaagacgggcccgtgttgaacaagttaatgattacgtctcagtagctaccgggatttacaca', '622_714insgagtaactgcgactgagagttcaccagggggtgacgtaaacggctgataactatggtggggagggccagcgcgagtcaagactgggtttgtt']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89334057788</v>
+        <v>45441.83358943465</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['4033g&gt;a']</t>
+          <t>['4068_4201insaacatgtctatactgcttagactaatgcaactagcccagtactgtgtcgtcggtacgttaccttccttacccacgctgtatcattggcgcttggttctcaggaagaaggccgagagttcgagaggcgaatagc', '4068_4171del', '4018_4029instcgaactagga', '4071_4141del', '4064_4186insgcgaacctgtttactgacactccaactcattgggtcaacaatttgatcctctagcagcttctcggtagagccctactgacacacttcttttgacatttgcatcaaccaaatcccgtcttgta']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89334060682</v>
+        <v>45441.8335894578</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1931_1932del']</t>
+          <t>['1878_1898del', '1926_2071insaaatctaacgtaccaatcgcacaggcaatcttcccaaggtcagacaatggttcataggtctccttgtaaactctcgatattagggttaattgtcccacactcccaatgagtttcctcagcccctactacatttctcggcgacata', '1791_1903del', '1911_1933insactgccgaggggacgccgcgac', '1806_1942insaaccatttgccttcctctctgcatggtttaggtacctcggtaaattgtccgcgttattgcagctggataacgcgtcaagctctcgcgaagtgatagcgtcagccaatcgccgagcgtgggcaaacgggaggcaaac']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['619a&gt;c']</t>
+          <t>['691_777del', '613_753insaccggtagggtaacgaattcatcgatggagctgaagatttgtggcgcatgatggcggtgcgcttctctggaacagctttcggacaacagggacttgcgggtccagttttcccgccattctcccaattccttcaggtcatt', '610_695inscatcccaggaccctcaaaataagtatgcacgagtgctatgcttatgatgccagtgagcaaattaagttctgtaagcgcgctgggc', '689_736insagcttgttatgtggggactgagtaggcatacgctgttggtaatatac', '687_746insactattataaaacacccggcactcggtttttgcccctccagtgcgtctgtacagctttc']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89334062418</v>
+        <v>45441.83358948675</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1822_1823insa']</t>
+          <t>['1889_1958del', '1915_1987insccgcggctttctttgatgacagtttattacagtaggtaactactccccatctgcggttgcctagcaacgcgt', '1920_2036del', '1949_1980del', '1748_1827insggggatgcaaggtactgcatcaagggggctcatgtaatgttccgatggcattcctagctacgcgcctcacaagtccgtc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3978_3981del']</t>
+          <t>['3989_4044insgcctctggtcgcctcgacgcttaggcgcgaggatacgcccacttgcgagttgggg', '3978_4099del', '3999_4057instatacctcccggctcctgcctgtttactggggtctcaatgcaacctcccacgcgttgc', '4024_4059insaggagagttcgtttcagggacagggatacaggact', '3991_4063del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89334064735</v>
+        <v>45441.83358950989</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['673_678insatctc']</t>
+          <t>['642_767del', '620_758del', '613_692del', '662_739del', '652_732insgatcgtgcgtcttaacgacactgctgaaaggcttgtagactcccacatggccgtctccggggtgagctaatcgagtgtta']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3990_3990del']</t>
+          <t>['4007_4063insgtcgaggtaaaggtctcggtaaaaaaggagatggtgtaaaccgaatacgtgcagaa', '4006_4115del', '4076_4168insgtgtacgcgactggagctttcggcaaattgctacctcatcattgtacagattgtaatctcatgctcggcgcatgtcagtatatcgccacgct', '4042_4129del', '3994_4031del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.8933406705</v>
+        <v>45441.83358953302</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1923g&gt;c']</t>
+          <t>['1869_1956del', '1971_2068del', '1959_2065del', '1744_1876insgctcttcaaaggaccaacccaccttaatggtatatcagctgttatcactaggcaccattcaaggtccagctggcttgccgccgtgcggaaaatagagttcaaacgaagtttctggtcaggtcccgagccacg', '1912_2007insctcatcagaccaggacagcgctgtggaattcttcacgaaaacctcatgacgaaacccccaaaggtctttccccagatcgcgttagttgggggtgc']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['684t&gt;a']</t>
+          <t>['680_752insataccagaaaaatacgtctatcaacattcgagaaccggtatgcccccgagcttcagcttgggatcgagttag', '631_728insacgtctagtgagatttcatacccagaaagacgttgcgagcgagttagattaacaacataattctaccatcacaaagattgtagttgcggcttcataa', '627_728insagtcagtgcgcatatgttgtcaattgagtccgcgtgcacccagacaccttacgacgaaatgagtgattgcactgttcccgtggcctcccttttaaccacat', '603_707inscgtggcgcatttcggtaaaagctccgtggatggattgagatctgcggcgacctttcgtcataaagcgggcatcccatgcgctgagcgagcgaagatgagacgga', '654_761instggcatgactgggatggtgcttttccacacaagcctgcagcacgctggagctgctttcggcttaagacgaaggaaacaccaagggagcgagctcgacagggtagcat']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3984g&gt;t']</t>
+          <t>['4024_4036insccttagagcttg', '4000_4029instcgtaagggcttgactcccggctctacag', '4023_4045instgaacacagaagtttcagtagt', '4003_4080insaagtcccctagcagttccgaccctaacctccataaggccacgaacctgtaaagattgagtcaggtgcgacggaaaaa', '4062_4192del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89334068786</v>
+        <v>45441.83358955617</v>
       </c>
     </row>
   </sheetData>
